--- a/examples/small-dataset-example/code/results/processed-tables/AllData.xlsx
+++ b/examples/small-dataset-example/code/results/processed-tables/AllData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1692" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2538" uniqueCount="160">
   <si>
     <t>Participant</t>
   </si>
